--- a/Documentation/UserStoriesExcel.xlsx
+++ b/Documentation/UserStoriesExcel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanhollet/Desktop/ProjectWatch/ProjectWatch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\cours\semestre 3\watch\ProjectWatch\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -124,8 +124,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,6 +192,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -462,20 +465,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="122.6640625" customWidth="1"/>
-    <col min="3" max="3" width="71.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="122.625" customWidth="1"/>
+    <col min="3" max="3" width="71.625" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -495,7 +498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="31.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -509,7 +512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="31.5">
       <c r="A4">
         <v>4</v>
       </c>
@@ -523,7 +526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>5</v>
       </c>
@@ -537,7 +540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="35.1" customHeight="1">
       <c r="A6">
         <v>8</v>
       </c>
@@ -551,7 +554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="31.5">
       <c r="A7">
         <v>9</v>
       </c>
@@ -565,10 +568,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="31.5">
       <c r="A9">
         <v>10</v>
       </c>
@@ -582,10 +585,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>11</v>
       </c>
@@ -599,7 +602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>12</v>
       </c>
@@ -610,7 +613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>14</v>
       </c>
@@ -624,7 +627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="31.5">
       <c r="A14">
         <v>16</v>
       </c>
@@ -638,7 +641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="38.1" customHeight="1">
       <c r="A15">
         <v>19</v>
       </c>
@@ -652,7 +655,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
     </row>

--- a/Documentation/UserStoriesExcel.xlsx
+++ b/Documentation/UserStoriesExcel.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>User Story</t>
   </si>
@@ -57,24 +57,12 @@
   </si>
   <si>
     <t>En tant qu’utilisateur j’aimerais pouvoir choisir entre un cadran analogique et digital</t>
-  </si>
-  <si>
-    <t>En tant qu’utilisateur j’aimerais qu’il y ait un bruit spécifique pour le mouvement des aiguilles ou lorsqu’une nouvelle minute/heure passe</t>
-  </si>
-  <si>
-    <t>En tant qu’utilisateur j’aimerais pouvoir personnaliser mes différents cadrans (couleurs, …)</t>
   </si>
   <si>
     <t>En tant que programmeur j’aimerais que le programme soit lisible pour les autres ainsi que pour nous 
 et qu’il soit simple de rajouter des lignes de codes afin d’améliorer notre programme</t>
   </si>
   <si>
-    <t>En tant qu’utilisateur j’aimerais pouvoir créer des alarmes/minuteurs/métronomes</t>
-  </si>
-  <si>
-    <t>Le choix doit être possible depuis un menu</t>
-  </si>
-  <si>
     <t>Il doit existé un bouton sur lequel cliquer
 Il doit être possible de cliquer sur la montre pour l'arréter ainsi que pour la relancer</t>
   </si>
@@ -97,10 +85,6 @@
 cadrans de la même manière que les fuseaux horaires</t>
   </si>
   <si>
-    <t>Il faudra qu'il soit possible de modifier la couleur des montres depuis
-un menu déroulant dans la barre des tâches</t>
-  </si>
-  <si>
     <t>Il faudra qu'il soit possible d'effectuer un choix depuis la barre des tâches</t>
   </si>
   <si>
@@ -119,6 +103,21 @@
   </si>
   <si>
     <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>24h</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>2h</t>
   </si>
 </sst>
 </file>
@@ -463,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F16"/>
+  <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -506,9 +505,15 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
@@ -520,10 +525,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -534,10 +545,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="35.1" customHeight="1">
@@ -545,12 +562,18 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
+      <c r="F6">
         <v>3</v>
       </c>
     </row>
@@ -559,105 +582,84 @@
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="31.5">
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="31.5">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="38.1" customHeight="1">
+      <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9">
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="3"/>
-    </row>
     <row r="11" spans="1:6">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="31.5">
-      <c r="A14">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="38.1" customHeight="1">
-      <c r="A15">
-        <v>19</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/UserStoriesExcel.xlsx
+++ b/Documentation/UserStoriesExcel.xlsx
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>

--- a/Documentation/UserStoriesExcel.xlsx
+++ b/Documentation/UserStoriesExcel.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\cours\semestre 3\watch\ProjectWatch\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanhollet/Desktop/GitProjet/ProjectWatch/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>User Story</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t xml:space="preserve">En tant qu’utilisateur j’aimerais pouvoir arrêter et la lancer (start and stop) la montre </t>
-  </si>
-  <si>
-    <t>En tant qu’utilisateur j’aimerais pouvoir modifier le format horaire de la montre (am/pm)</t>
   </si>
   <si>
     <t>En tant qu’utilisateur j’aimerais pouvoir choisir entre un cadran analogique et digital</t>
@@ -71,9 +68,6 @@
 L'heure doit être la même que celle du PC</t>
   </si>
   <si>
-    <t>Il devra être possible de cliquer sur un bouton afin de modfifier le-dit format horaire</t>
-  </si>
-  <si>
     <t xml:space="preserve">En tant qu'utilisateur j'aimerais que sur la montre soit affiché la date </t>
   </si>
   <si>
@@ -103,28 +97,13 @@
   </si>
   <si>
     <t>1,2,3,4</t>
-  </si>
-  <si>
-    <t>24h</t>
-  </si>
-  <si>
-    <t>10h</t>
-  </si>
-  <si>
-    <t>1h</t>
-  </si>
-  <si>
-    <t>4h</t>
-  </si>
-  <si>
-    <t>2h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -465,19 +444,19 @@
   <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="122.625" customWidth="1"/>
-    <col min="3" max="3" width="71.625" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="122.6640625" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="18.75">
+    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -497,7 +476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5">
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -505,19 +484,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>23</v>
+      <c r="E3">
+        <v>8</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5">
+    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -525,139 +504,119 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="35.1" customHeight="1">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
-        <v>26</v>
+      <c r="E6">
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="31.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
+      <c r="E7">
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="31.5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
-        <v>25</v>
+      <c r="E8">
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
-        <v>26</v>
+      <c r="E9">
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="38.1" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>19</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
     </row>

--- a/Documentation/UserStoriesExcel.xlsx
+++ b/Documentation/UserStoriesExcel.xlsx
@@ -128,15 +128,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -144,23 +150,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,7 +473,7 @@
   <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,169 +485,175 @@
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>8</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>2</v>
       </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>4</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>10</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>5</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>19</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
